--- a/2024/shuffle-architecute/Teste10/content/results/metrics_7_6.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_7_6.xlsx
@@ -488,445 +488,445 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_24</t>
+          <t>model_7_6_4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9724362406510871</v>
+        <v>0.9598005425514508</v>
       </c>
       <c r="C2" t="n">
-        <v>0.75528760745706</v>
+        <v>0.7451332118027434</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9693306050266616</v>
+        <v>0.9877850934238211</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7172707775322413</v>
+        <v>0.4203772190162192</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9528835555542877</v>
+        <v>0.9530821733811961</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1156791970133781</v>
+        <v>0.1687085181474686</v>
       </c>
       <c r="H2" t="n">
-        <v>1.636392951011658</v>
+        <v>1.70429539680481</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1421658396720886</v>
+        <v>0.06169002130627632</v>
       </c>
       <c r="J2" t="n">
-        <v>0.098215252161026</v>
+        <v>0.2621040642261505</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1201905831694603</v>
+        <v>0.1618970334529877</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_23</t>
+          <t>model_7_6_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9723516305378654</v>
+        <v>0.9594589718475994</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7548468537029006</v>
+        <v>0.7451326649478571</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9704086579663543</v>
+        <v>0.9883804816955735</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7247295436572898</v>
+        <v>0.4267698374279272</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9543709515834068</v>
+        <v>0.9539367336846654</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1160342767834663</v>
+        <v>0.1701420247554779</v>
       </c>
       <c r="H3" t="n">
-        <v>1.639340400695801</v>
+        <v>1.704298973083496</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1371686011552811</v>
+        <v>0.05868307873606682</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09562420845031738</v>
+        <v>0.259213387966156</v>
       </c>
       <c r="K3" t="n">
-        <v>0.116396352648735</v>
+        <v>0.1589482575654984</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_22</t>
+          <t>model_7_6_5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9722561426183776</v>
+        <v>0.960122822336185</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7543980715558337</v>
+        <v>0.7451278876708085</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9714727264070588</v>
+        <v>0.9871652010891464</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7321302299499958</v>
+        <v>0.4137953563245861</v>
       </c>
       <c r="F4" t="n">
-        <v>0.955841614686241</v>
+        <v>0.9521972673305592</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1164350286126137</v>
+        <v>0.1673559695482254</v>
       </c>
       <c r="H4" t="n">
-        <v>1.642341136932373</v>
+        <v>1.704330921173096</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1322361826896667</v>
+        <v>0.06482071429491043</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09305333346128464</v>
+        <v>0.2650804221630096</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1126447916030884</v>
+        <v>0.1649505347013474</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_21</t>
+          <t>model_7_6_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9721495183889195</v>
+        <v>0.9590976120694579</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7539411255238765</v>
+        <v>0.7451260442516494</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9725221721889901</v>
+        <v>0.9889504164908601</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7394709498246801</v>
+        <v>0.4329677202271069</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9572949580861474</v>
+        <v>0.9547599237737661</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1168825030326843</v>
+        <v>0.1716585755348206</v>
       </c>
       <c r="H5" t="n">
-        <v>1.645396828651428</v>
+        <v>1.704343318939209</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1273715496063232</v>
+        <v>0.05580468848347664</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09050329774618149</v>
+        <v>0.25641068816185</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1089374274015427</v>
+        <v>0.1561077088117599</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_20</t>
+          <t>model_7_6_6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9720314173537855</v>
+        <v>0.9604263641532573</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7534758953506735</v>
+        <v>0.745116855861101</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9735563293028258</v>
+        <v>0.9865216517006201</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7467487380662259</v>
+        <v>0.4070297147482063</v>
       </c>
       <c r="F6" t="n">
-        <v>0.958730106463206</v>
+        <v>0.9512830210175054</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1173781603574753</v>
+        <v>0.1660820841789246</v>
       </c>
       <c r="H6" t="n">
-        <v>1.648507833480835</v>
+        <v>1.704404830932617</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1225777864456177</v>
+        <v>0.06807089596986771</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08797512203454971</v>
+        <v>0.2681397795677185</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1052764654159546</v>
+        <v>0.168105274438858</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_19</t>
+          <t>model_7_6_1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9719016121364502</v>
+        <v>0.9587158647546987</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7530022307455588</v>
+        <v>0.7451132310073977</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9745748141308076</v>
+        <v>0.9894939891196398</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7539617655203481</v>
+        <v>0.4389601582178292</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9601466279300708</v>
+        <v>0.9555503638346718</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1179229170084</v>
+        <v>0.1732606738805771</v>
       </c>
       <c r="H7" t="n">
-        <v>1.651675224304199</v>
+        <v>1.704429030418396</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1178566738963127</v>
+        <v>0.05305943265557289</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08546943962574005</v>
+        <v>0.2537009418010712</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1016630232334137</v>
+        <v>0.1533801704645157</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_18</t>
+          <t>model_7_6_7</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9717597402061372</v>
+        <v>0.9607116053136241</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7525200364331172</v>
+        <v>0.7451002617084128</v>
       </c>
       <c r="D8" t="n">
-        <v>0.975577094675667</v>
+        <v>0.9858553304681963</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7611061548820146</v>
+        <v>0.4000870249523281</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9615437033144064</v>
+        <v>0.9503405009405247</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1185183227062225</v>
+        <v>0.1648849844932556</v>
       </c>
       <c r="H8" t="n">
-        <v>1.654899597167969</v>
+        <v>1.704515814781189</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1132106781005859</v>
+        <v>0.0714360699057579</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08298759907484055</v>
+        <v>0.2712792456150055</v>
       </c>
       <c r="K8" t="n">
-        <v>0.09809918701648712</v>
+        <v>0.1713576018810272</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_17</t>
+          <t>model_7_6_0</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9716055396803046</v>
+        <v>0.9583132916638064</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7520291269179689</v>
+        <v>0.7450940345043575</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9765624191556818</v>
+        <v>0.9900103461834572</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7681781954642599</v>
+        <v>0.4447422825737359</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9629204938053031</v>
+        <v>0.9563071230673207</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1191654652357101</v>
+        <v>0.1749501973390579</v>
       </c>
       <c r="H9" t="n">
-        <v>1.658182382583618</v>
+        <v>1.704557418823242</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1086432710289955</v>
+        <v>0.05045162886381149</v>
       </c>
       <c r="J9" t="n">
-        <v>0.08053089678287506</v>
+        <v>0.2510862350463867</v>
       </c>
       <c r="K9" t="n">
-        <v>0.09458709508180618</v>
+        <v>0.1507688611745834</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_16</t>
+          <t>model_7_6_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9714386569857315</v>
+        <v>0.9609790459094721</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7515294170598497</v>
+        <v>0.7450782699085086</v>
       </c>
       <c r="D10" t="n">
-        <v>0.977530336353105</v>
+        <v>0.9851670123903503</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7751772688951825</v>
+        <v>0.3929754677166486</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9642764862805983</v>
+        <v>0.9493707743361087</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1198658347129822</v>
+        <v>0.1637625843286514</v>
       </c>
       <c r="H10" t="n">
-        <v>1.661523938179016</v>
+        <v>1.704662799835205</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1041565537452698</v>
+        <v>0.07491234689950943</v>
       </c>
       <c r="J10" t="n">
-        <v>0.07809954136610031</v>
+        <v>0.2744950950145721</v>
       </c>
       <c r="K10" t="n">
-        <v>0.09112805873155594</v>
+        <v>0.1747037768363953</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_15</t>
+          <t>model_7_6_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9712588529194838</v>
+        <v>0.9612292326760592</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7510207463281506</v>
+        <v>0.7450510377733299</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9784804244828565</v>
+        <v>0.98445760191002</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7820986467457103</v>
+        <v>0.3857001274200782</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9656110010834178</v>
+        <v>0.9483749388906872</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1206204444169998</v>
+        <v>0.1627126187086105</v>
       </c>
       <c r="H11" t="n">
-        <v>1.664925456047058</v>
+        <v>1.704844951629639</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09975249320268631</v>
+        <v>0.07849514484405518</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07569517195224762</v>
+        <v>0.2777849733829498</v>
       </c>
       <c r="K11" t="n">
-        <v>0.08772380650043488</v>
+        <v>0.1781400591135025</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_14</t>
+          <t>model_7_6_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9710656935641228</v>
+        <v>0.9614625378934955</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7505029756441377</v>
+        <v>0.7450187114381834</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9794117995294644</v>
+        <v>0.9837279427313723</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7889402003587768</v>
+        <v>0.3782664292966209</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9669230622150295</v>
+        <v>0.9473538813066293</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1214310899376869</v>
+        <v>0.1617334932088852</v>
       </c>
       <c r="H12" t="n">
-        <v>1.668387889862061</v>
+        <v>1.705060958862305</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09543516486883163</v>
+        <v>0.0821802094578743</v>
       </c>
       <c r="J12" t="n">
-        <v>0.07331853359937668</v>
+        <v>0.2811464965343475</v>
       </c>
       <c r="K12" t="n">
-        <v>0.08437684178352356</v>
+        <v>0.181663379073143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_13</t>
+          <t>model_7_6_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9708589659957293</v>
+        <v>0.9616795219068249</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7499759766085632</v>
+        <v>0.7449814599305762</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9803240652535464</v>
+        <v>0.982978802583247</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7956994726343321</v>
+        <v>0.3706825624928852</v>
       </c>
       <c r="F13" t="n">
-        <v>0.968212172961326</v>
+        <v>0.9463087490749172</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1222986802458763</v>
+        <v>0.1608228236436844</v>
       </c>
       <c r="H13" t="n">
-        <v>1.671911716461182</v>
+        <v>1.705310106277466</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09120642393827438</v>
+        <v>0.0859636589884758</v>
       </c>
       <c r="J13" t="n">
-        <v>0.07097048312425613</v>
+        <v>0.2845759093761444</v>
       </c>
       <c r="K13" t="n">
-        <v>0.08108840882778168</v>
+        <v>0.1852697730064392</v>
       </c>
     </row>
     <row r="14">
@@ -936,478 +936,478 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9706382657633913</v>
+        <v>0.9618805728469002</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7494395918681047</v>
+        <v>0.7449394347075664</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9812166728277104</v>
+        <v>0.9822109666381517</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8023727612172958</v>
+        <v>0.3629532459468403</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9694775597588483</v>
+        <v>0.9452404014189647</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1232249140739441</v>
+        <v>0.1599790751934052</v>
       </c>
       <c r="H14" t="n">
-        <v>1.675498723983765</v>
+        <v>1.705591201782227</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08706880360841751</v>
+        <v>0.08984152227640152</v>
       </c>
       <c r="J14" t="n">
-        <v>0.06865229457616806</v>
+        <v>0.2880710661411285</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0778605043888092</v>
+        <v>0.1889562457799911</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_11</t>
+          <t>model_7_6_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.970403284009038</v>
+        <v>0.9620661671552235</v>
       </c>
       <c r="C15" t="n">
-        <v>0.748893672324596</v>
+        <v>0.7448927660715121</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9820889014632213</v>
+        <v>0.9814251802195806</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8089575111310507</v>
+        <v>0.3550845243013695</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9707183878936148</v>
+        <v>0.9441497409018457</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1242110803723335</v>
+        <v>0.1592001765966415</v>
       </c>
       <c r="H15" t="n">
-        <v>1.679149150848389</v>
+        <v>1.705903291702271</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08302564918994904</v>
+        <v>0.09381005167961121</v>
       </c>
       <c r="J15" t="n">
-        <v>0.06636486202478409</v>
+        <v>0.2916293144226074</v>
       </c>
       <c r="K15" t="n">
-        <v>0.07469524443149567</v>
+        <v>0.1927197426557541</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_10</t>
+          <t>model_7_6_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9701536883673078</v>
+        <v>0.9622367499565212</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7483381069148696</v>
+        <v>0.7448416152306223</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9829401796158239</v>
+        <v>0.9806222359973031</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8154502652367843</v>
+        <v>0.3470823938643529</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9719339187111903</v>
+        <v>0.9430378811339517</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1252585798501968</v>
+        <v>0.1584842801094055</v>
       </c>
       <c r="H16" t="n">
-        <v>1.682864189147949</v>
+        <v>1.706245303153992</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07907960563898087</v>
+        <v>0.09786522388458252</v>
       </c>
       <c r="J16" t="n">
-        <v>0.06410939991474152</v>
+        <v>0.2952478229999542</v>
       </c>
       <c r="K16" t="n">
-        <v>0.07159450650215149</v>
+        <v>0.1965563744306564</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_9</t>
+          <t>model_7_6_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9698890727362999</v>
+        <v>0.9623926762839418</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7477727357713567</v>
+        <v>0.7447861291123533</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9837699226424197</v>
+        <v>0.9798028995679632</v>
       </c>
       <c r="E17" t="n">
-        <v>0.82184911113523</v>
+        <v>0.3389509713492295</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9731234978033112</v>
+        <v>0.9419054321388145</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1263691186904907</v>
+        <v>0.1578298807144165</v>
       </c>
       <c r="H17" t="n">
-        <v>1.686644911766052</v>
+        <v>1.706616401672363</v>
       </c>
       <c r="I17" t="n">
-        <v>0.07523339241743088</v>
+        <v>0.102003201842308</v>
       </c>
       <c r="J17" t="n">
-        <v>0.06188654527068138</v>
+        <v>0.2989248633384705</v>
       </c>
       <c r="K17" t="n">
-        <v>0.06855998188257217</v>
+        <v>0.2004640698432922</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_8</t>
+          <t>model_7_6_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.969609206361306</v>
+        <v>0.9625344606306055</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7471974051777214</v>
+        <v>0.7447263981364021</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9845774677114227</v>
+        <v>0.97896783073671</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8281517781151944</v>
+        <v>0.3306985363939711</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9742863503808508</v>
+        <v>0.9407536456511699</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1275436580181122</v>
+        <v>0.1572348475456238</v>
       </c>
       <c r="H18" t="n">
-        <v>1.690492153167725</v>
+        <v>1.707015752792358</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07149007171392441</v>
+        <v>0.106220617890358</v>
       </c>
       <c r="J18" t="n">
-        <v>0.05969710648059845</v>
+        <v>0.3026565909385681</v>
       </c>
       <c r="K18" t="n">
-        <v>0.06559363007545471</v>
+        <v>0.2044384777545929</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_7</t>
+          <t>model_7_6_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9693136375520969</v>
+        <v>0.9626624899521594</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7466120169472628</v>
+        <v>0.7446626193860801</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9853621923671021</v>
+        <v>0.97811780238423</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8343530871164996</v>
+        <v>0.3223286318706238</v>
       </c>
       <c r="F19" t="n">
-        <v>0.97542160553567</v>
+        <v>0.9395831210968494</v>
       </c>
       <c r="G19" t="n">
-        <v>0.128784105181694</v>
+        <v>0.1566975265741348</v>
       </c>
       <c r="H19" t="n">
-        <v>1.694406628608704</v>
+        <v>1.707442283630371</v>
       </c>
       <c r="I19" t="n">
-        <v>0.06785253435373306</v>
+        <v>0.1105135977268219</v>
       </c>
       <c r="J19" t="n">
-        <v>0.05754288285970688</v>
+        <v>0.3064414262771606</v>
       </c>
       <c r="K19" t="n">
-        <v>0.06269767880439758</v>
+        <v>0.208477571606636</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_6</t>
+          <t>model_7_6_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9690020343120201</v>
+        <v>0.9627771192036074</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7460163507715971</v>
+        <v>0.7445949071848093</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9861235013783511</v>
+        <v>0.9772534781536251</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8404524014419199</v>
+        <v>0.3138471100474716</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9765285994045505</v>
+        <v>0.9383948771117886</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1300918310880661</v>
+        <v>0.1562164574861526</v>
       </c>
       <c r="H20" t="n">
-        <v>1.698389768600464</v>
+        <v>1.707895040512085</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0643235445022583</v>
+        <v>0.11487877368927</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05542408674955368</v>
+        <v>0.3102767467498779</v>
       </c>
       <c r="K20" t="n">
-        <v>0.05987381935119629</v>
+        <v>0.212577760219574</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_5</t>
+          <t>model_7_6_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9686739890248353</v>
+        <v>0.9628787833688419</v>
       </c>
       <c r="C21" t="n">
-        <v>0.74541031172044</v>
+        <v>0.7445233863509451</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9868607333898306</v>
+        <v>0.976375539863527</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8464461054081355</v>
+        <v>0.3052586515677745</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9776065487825011</v>
+        <v>0.9371896625987334</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1314685642719269</v>
+        <v>0.1557898074388504</v>
       </c>
       <c r="H21" t="n">
-        <v>1.702442407608032</v>
+        <v>1.708373308181763</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06090615317225456</v>
+        <v>0.119312696158886</v>
       </c>
       <c r="J21" t="n">
-        <v>0.05334197357296944</v>
+        <v>0.3141604363918304</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05712404847145081</v>
+        <v>0.2167365401983261</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_4</t>
+          <t>model_7_6_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9683291981414485</v>
+        <v>0.9629678575223671</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7447937396527302</v>
+        <v>0.7444482260308428</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9875732308902502</v>
+        <v>0.9754846241069631</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8523323178299622</v>
+        <v>0.2965696401917667</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9786546859858828</v>
+        <v>0.9359683420820565</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1329155713319778</v>
+        <v>0.1554159671068192</v>
       </c>
       <c r="H22" t="n">
-        <v>1.706565380096436</v>
+        <v>1.708875894546509</v>
       </c>
       <c r="I22" t="n">
-        <v>0.05760341882705688</v>
+        <v>0.123812161386013</v>
       </c>
       <c r="J22" t="n">
-        <v>0.05129720643162727</v>
+        <v>0.3180895745754242</v>
       </c>
       <c r="K22" t="n">
-        <v>0.05445032566785812</v>
+        <v>0.2209509015083313</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_3</t>
+          <t>model_7_6_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9679672409579189</v>
+        <v>0.9630447290945063</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7441664737024106</v>
+        <v>0.744369465075204</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9882603883359671</v>
+        <v>0.9745814509437873</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8581073151405435</v>
+        <v>0.2877839212875174</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9796722380722093</v>
+        <v>0.9347317457796076</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1344346404075623</v>
+        <v>0.1550933718681335</v>
       </c>
       <c r="H23" t="n">
-        <v>1.710759997367859</v>
+        <v>1.709402561187744</v>
       </c>
       <c r="I23" t="n">
-        <v>0.05441815033555031</v>
+        <v>0.1283735334873199</v>
       </c>
       <c r="J23" t="n">
-        <v>0.04929107055068016</v>
+        <v>0.3220624327659607</v>
       </c>
       <c r="K23" t="n">
-        <v>0.05185462534427643</v>
+        <v>0.2252179533243179</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_2</t>
+          <t>model_7_6_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9675877549549123</v>
+        <v>0.9631097167085315</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7435283844938954</v>
+        <v>0.7442873123017961</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9889215106934423</v>
+        <v>0.9736665297959464</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8637690925009285</v>
+        <v>0.278906893797621</v>
       </c>
       <c r="F24" t="n">
-        <v>0.980658425265198</v>
+        <v>0.9334805274741851</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1360272467136383</v>
+        <v>0.1548206210136414</v>
       </c>
       <c r="H24" t="n">
-        <v>1.71502697467804</v>
+        <v>1.709951877593994</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0513535663485527</v>
+        <v>0.1329942494630814</v>
       </c>
       <c r="J24" t="n">
-        <v>0.04732427000999451</v>
+        <v>0.3260766267776489</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0493389368057251</v>
+        <v>0.2295354604721069</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_1</t>
+          <t>model_7_6_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9671903423164512</v>
+        <v>0.9631632760645312</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7428793068000172</v>
+        <v>0.744201843003486</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9895558718377033</v>
+        <v>0.9727405111330292</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8693148975477001</v>
+        <v>0.2699434622284852</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9816124018950961</v>
+        <v>0.9322155952849592</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1376951187849045</v>
+        <v>0.1545958369970322</v>
       </c>
       <c r="H25" t="n">
-        <v>1.719367265701294</v>
+        <v>1.71052348613739</v>
       </c>
       <c r="I25" t="n">
-        <v>0.04841302707791328</v>
+        <v>0.1376709938049316</v>
       </c>
       <c r="J25" t="n">
-        <v>0.04539775103330612</v>
+        <v>0.3301298916339874</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04690541326999664</v>
+        <v>0.23390032351017</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_7_6_0</t>
+          <t>model_7_6_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9667746298943001</v>
+        <v>0.9632056632236269</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7422190937431457</v>
+        <v>0.7441131866152508</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9901629096586215</v>
+        <v>0.9718040434192078</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8747425487387883</v>
+        <v>0.2608978148789108</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9825335039371301</v>
+        <v>0.9309375309910936</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1394397765398026</v>
+        <v>0.1544179469347</v>
       </c>
       <c r="H26" t="n">
-        <v>1.723782181739807</v>
+        <v>1.711116313934326</v>
       </c>
       <c r="I26" t="n">
-        <v>0.04559914767742157</v>
+        <v>0.1424005329608917</v>
       </c>
       <c r="J26" t="n">
-        <v>0.04351227730512619</v>
+        <v>0.334220290184021</v>
       </c>
       <c r="K26" t="n">
-        <v>0.04455574601888657</v>
+        <v>0.2383104562759399</v>
       </c>
     </row>
   </sheetData>
